--- a/Sep19/pos_prof/Tables/individual_countries-M_%gdp.xlsx
+++ b/Sep19/pos_prof/Tables/individual_countries-M_%gdp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
   <si>
     <t>M_ETR</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>M_POP</t>
+  </si>
+  <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -770,15 +776,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -816,10 +822,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.4638803329537388</v>
@@ -834,33 +846,39 @@
         <v>9223731.5</v>
       </c>
       <c r="F2">
+        <v>42494218261.79173</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>-0.001260553072787397</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-0.00167867718433761</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-0.001229728624691281</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>-0.001510627750235067</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>-0.0001693699291986362</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>-0.0002255497543073934</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>-0.0008468496459931826</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>-0.001127748771536969</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.6205371966434521</v>
@@ -875,33 +893,39 @@
         <v>2879841.25</v>
       </c>
       <c r="F3">
+        <v>2998814894.49083</v>
+      </c>
+      <c r="G3">
+        <v>270011767.8991651</v>
+      </c>
+      <c r="H3">
         <v>-5.478754896829356e-06</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>8.775258614991545e-05</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>4.954449648290449e-07</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>6.312900626845658e-05</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>-7.361342802653865e-07</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>1.179057798046012e-05</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>-3.680671401326928e-06</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>5.895288990230062e-05</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1.038985817918542</v>
@@ -916,33 +940,39 @@
         <v>2919609</v>
       </c>
       <c r="F4">
+        <v>2218564329.546198</v>
+      </c>
+      <c r="G4">
+        <v>294014058.9589359</v>
+      </c>
+      <c r="H4">
         <v>5.018199732109612e-05</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.0002290091416076201</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>3.736783291781201e-05</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.0001575053400980085</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>6.742533509141431e-06</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>3.077003494518072e-05</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>3.371266754570715e-05</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.0001538501747259036</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.5446460905169289</v>
@@ -957,33 +987,39 @@
         <v>43629437.75</v>
       </c>
       <c r="F5">
+        <v>166710713995.8035</v>
+      </c>
+      <c r="G5">
+        <v>15465937803.46667</v>
+      </c>
+      <c r="H5">
         <v>0.0002766251806164139</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.001056329859137753</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.000145879914975765</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.0006696917601406434</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>3.716780218698825e-05</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.000141930171219964</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.0001858390109349409</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.0007096508560998199</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.3718662846962684</v>
@@ -998,33 +1034,39 @@
         <v>8683733.75</v>
       </c>
       <c r="F6">
+        <v>163227474729.9723</v>
+      </c>
+      <c r="G6">
+        <v>9639820060.340796</v>
+      </c>
+      <c r="H6">
         <v>0.0005122541411699204</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.0004707693364243641</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.0003736064363352423</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.0003457366123894827</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>6.882728660508421e-05</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>6.325332181593235e-05</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.0003441364330254213</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.0003162666090796618</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>1.078298440014149</v>
@@ -1039,33 +1081,39 @@
         <v>24041166</v>
       </c>
       <c r="F7">
+        <v>361502269857.717</v>
+      </c>
+      <c r="G7">
+        <v>59545549400.06455</v>
+      </c>
+      <c r="H7">
         <v>0.001774223901280143</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.002077299350069395</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.002889922365742329</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.003093530878590475</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.0002383875641807495</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.0002791092667503786</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.001191937820903747</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.001395546333751893</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.1054646367899041</v>
@@ -1080,33 +1128,39 @@
         <v>104555.5</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>-0.01256559889243585</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>-0.013174810866467</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>-0.0133926778003765</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>-0.01380195128173994</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>-0.001688333986639902</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>-0.001770188682912589</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>-0.008441669933199513</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>-0.008850943414562955</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0.08550529520849598</v>
@@ -1121,33 +1175,39 @@
         <v>3531449</v>
       </c>
       <c r="F9">
+        <v>6376905261.574483</v>
+      </c>
+      <c r="G9">
+        <v>299987147.5604433</v>
+      </c>
+      <c r="H9">
         <v>-2.5264032021928e-05</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>2.141437239219244e-05</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>-3.565400993860269e-05</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>-4.295084156751455e-06</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>-3.394515794058678e-06</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>2.87726936231157e-06</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>-1.697257897029344e-05</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>1.438634681155779e-05</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0.0166705414399613</v>
@@ -1162,33 +1222,39 @@
         <v>284579.25</v>
       </c>
       <c r="F10">
+        <v>1337070536.443148</v>
+      </c>
+      <c r="G10">
+        <v>130111830.9037901</v>
+      </c>
+      <c r="H10">
         <v>-0.02723756527024459</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>-0.04657788137710608</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>-0.01877770847397632</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>-0.03177068766863673</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>-0.003659682881232098</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>-0.006258278720164179</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>-0.01829841440616053</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>-0.03129139360082094</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0.3807937740264143</v>
@@ -1203,33 +1269,39 @@
         <v>162056869</v>
       </c>
       <c r="F11">
+        <v>19299500079.81276</v>
+      </c>
+      <c r="G11">
+        <v>3852631858.235275</v>
+      </c>
+      <c r="H11">
         <v>-0.0003511602901202454</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>-0.0003154759126548401</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>-0.0002558919217197117</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>-0.0002319188712576291</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>-4.71824588420718e-05</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>-4.238784874965529e-05</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>-0.0002359122942103594</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>-0.0002119392437482769</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0.1765509802813119</v>
@@ -1244,33 +1316,39 @@
         <v>11296685.75</v>
       </c>
       <c r="F12">
+        <v>207904913535.2679</v>
+      </c>
+      <c r="G12">
+        <v>19310426587.22296</v>
+      </c>
+      <c r="H12">
         <v>0.003290936352769876</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.001005708649780481</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.00266218858920676</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.001126954323337195</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.0004421754776523096</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>0.000135128624478397</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.002210877388261544</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>0.0006756431223919798</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0.08541399034785069</v>
@@ -1285,33 +1363,39 @@
         <v>7151435.5</v>
       </c>
       <c r="F13">
+        <v>15635710825.9256</v>
+      </c>
+      <c r="G13">
+        <v>1209008774.759262</v>
+      </c>
+      <c r="H13">
         <v>1.769985385321353e-05</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.0005231587461212681</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>9.523483863255186e-05</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.0004348061690445178</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>2.378180703900179e-06</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>7.029244678629337e-05</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>1.189090351950067e-05</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.0003514622339314665</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>0.03195894343465661</v>
@@ -1326,10 +1410,10 @@
         <v>1406501.75</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>344245067.4295055</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>41603949.32570496</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1349,10 +1433,16 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0.01916494299570608</v>
@@ -1390,10 +1480,16 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>0.5435900323311412</v>
@@ -1408,33 +1504,39 @@
         <v>10806586.5</v>
       </c>
       <c r="F16">
+        <v>10765106899.85116</v>
+      </c>
+      <c r="G16">
+        <v>1857238890.070168</v>
+      </c>
+      <c r="H16">
         <v>0.0003571316509785848</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.0006695107954910619</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>0.0003645015936282549</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.0005743604037464871</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>4.798478044806352e-05</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>8.995654247170999e-05</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.0002399239022403176</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.0004497827123585497</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>6.471261278245624</v>
@@ -1449,33 +1551,39 @@
         <v>206779096</v>
       </c>
       <c r="F17">
+        <v>614031604400.1611</v>
+      </c>
+      <c r="G17">
+        <v>50490649816.95195</v>
+      </c>
+      <c r="H17">
         <v>0.002274661805351315</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>0.00370628914465973</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>0.002317054995447706</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.003278833703270484</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0.0003056272022496368</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>0.0004979829438141922</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.001528136011248184</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>0.00248991471907096</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>0.001481620105625933</v>
@@ -1490,7 +1598,7 @@
         <v>388900</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1700685949.597928</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1513,10 +1621,16 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>0.3305610002155921</v>
@@ -1531,33 +1645,39 @@
         <v>2229922.75</v>
       </c>
       <c r="F19">
+        <v>3625845354.29923</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0.0001688323186601414</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.0004734417688501225</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>0.0001024446801230611</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.0003070837473930754</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>2.268458066162885e-05</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>6.361239411563169e-05</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.0001134229033081442</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0.0003180619705781585</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>0.1848601141168272</v>
@@ -1572,33 +1692,39 @@
         <v>9493384</v>
       </c>
       <c r="F20">
+        <v>16491907898.09357</v>
+      </c>
+      <c r="G20">
+        <v>1436245672.195966</v>
+      </c>
+      <c r="H20">
         <v>6.274536328820881e-06</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>8.282800297893034e-05</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>8.722175274106626e-07</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>5.230144929219657e-05</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>8.430567476359677e-07</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>1.112890310059315e-05</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>4.215283738179824e-06</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>5.564451550296574e-05</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>0.2732084640075076</v>
@@ -1613,33 +1739,39 @@
         <v>36085137</v>
       </c>
       <c r="F21">
+        <v>495997171341.8364</v>
+      </c>
+      <c r="G21">
+        <v>52563581921.39192</v>
+      </c>
+      <c r="H21">
         <v>0.002391670976119184</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>0.00305780581930722</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>0.002837246060342543</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.003284760780916832</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>0.0003213487417836469</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>0.000410851685898505</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>0.001606743708918235</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>0.002054258429492523</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>0.1152854342222651</v>
@@ -1654,33 +1786,39 @@
         <v>17835239.75</v>
       </c>
       <c r="F22">
+        <v>43397909696.74773</v>
+      </c>
+      <c r="G22">
+        <v>10627264858.73001</v>
+      </c>
+      <c r="H22">
         <v>-0.001576691676322409</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>-9.197592586452577e-05</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>-0.001145954436354687</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>-0.0001485105089082301</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>-0.0002118468181560217</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>-1.23580326667302e-05</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>-0.001059234090780108</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>-6.179016333365102e-05</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>0.2635720909729406</v>
@@ -1695,33 +1833,39 @@
         <v>1375137500</v>
       </c>
       <c r="F23">
+        <v>2669714541701.067</v>
+      </c>
+      <c r="G23">
+        <v>434215616892.8914</v>
+      </c>
+      <c r="H23">
         <v>6.810587746550607e-05</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>0.0004273402404317131</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>1.99740888837353e-05</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.0002613106098711604</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>9.150814744227183e-06</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>5.741811894171226e-05</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>4.575407372113583e-05</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.000287090594708561</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>0.6926113902235932</v>
@@ -1736,33 +1880,39 @@
         <v>48434910.5</v>
       </c>
       <c r="F24">
+        <v>54317832169.73812</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>0.0006868766925244043</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>0.001640546534331008</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>0.000656178343151582</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>0.001296861377736122</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>9.228985220257612e-05</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>0.0002204264591194842</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>0.0004614492610128803</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>0.00110213229559742</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>0.1696800597082566</v>
@@ -1777,33 +1927,39 @@
         <v>4832117.5</v>
       </c>
       <c r="F25">
+        <v>7813132536.326554</v>
+      </c>
+      <c r="G25">
+        <v>1653404469.940727</v>
+      </c>
+      <c r="H25">
         <v>0.0001325358664328104</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>0.007340339125351634</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>-0.0001828722425353646</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>0.004659387690802159</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>1.780773122417475e-05</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>0.0009862597178916792</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>8.90386561208719e-05</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>0.004931298589458396</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>0.05140512758335535</v>
@@ -1817,34 +1973,40 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>132</v>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>134</v>
+      </c>
+      <c r="N26" t="s">
+        <v>134</v>
+      </c>
+      <c r="O26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>0.01021498128951731</v>
@@ -1859,33 +2021,39 @@
         <v>1165742.5</v>
       </c>
       <c r="F27">
+        <v>4918777342.358389</v>
+      </c>
+      <c r="G27">
+        <v>1133445849.661561</v>
+      </c>
+      <c r="H27">
         <v>-0.008931657170098736</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>-0.008964691670461952</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>-0.00901629511482618</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>-0.009038487956636714</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>-0.001200071758328302</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>-0.001204510326690409</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>-0.006000358791641516</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>-0.006022551633452049</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>0.1657072661536193</v>
@@ -1900,33 +2068,39 @@
         <v>10557265.25</v>
       </c>
       <c r="F28">
+        <v>68118979753.21311</v>
+      </c>
+      <c r="G28">
+        <v>7232899630.742956</v>
+      </c>
+      <c r="H28">
         <v>0.0002674925540620043</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.001620632344826178</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>0.0001568385189256369</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>0.00106588866328334</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>3.594072786040111e-05</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>0.0002177507567319418</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>0.0001797036393020053</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.001088753783659708</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>0.3567911176518284</v>
@@ -1941,33 +2115,39 @@
         <v>81928195</v>
       </c>
       <c r="F29">
+        <v>1306253977481.738</v>
+      </c>
+      <c r="G29">
+        <v>70004185267.32045</v>
+      </c>
+      <c r="H29">
         <v>0.001277848529055175</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.001266138781850474</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>0.0009296509624376322</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>0.0009217842605200023</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>0.0001716937743954549</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>0.000170120434011929</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>0.0008584688719772746</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>0.0008506021700596445</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>0.5233560154281636</v>
@@ -1982,33 +2162,39 @@
         <v>5706142.75</v>
       </c>
       <c r="F30">
+        <v>139276466440.4725</v>
+      </c>
+      <c r="G30">
+        <v>9208793855.98259</v>
+      </c>
+      <c r="H30">
         <v>0.0002968453307242949</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>0.0003426343302621717</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>0.000229407770880628</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>0.0002601691873462501</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>3.988461393104646e-05</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>4.603689722417089e-05</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>0.0001994230696552324</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>0.0002301844861208546</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>0.1134284127311136</v>
@@ -2023,33 +2209,39 @@
         <v>10587506.75</v>
       </c>
       <c r="F31">
+        <v>9841476869.357698</v>
+      </c>
+      <c r="G31">
+        <v>1647374473.501711</v>
+      </c>
+      <c r="H31">
         <v>-0.0007868588559796728</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.001349709219538722</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>-0.0007171221029799471</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>0.00071824143502021</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>-0.0001057236157712136</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>0.000181349091828818</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>-0.0005286180788560675</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>0.0009067454591440896</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>0.5868422406058135</v>
@@ -2064,33 +2256,39 @@
         <v>40227258.75</v>
       </c>
       <c r="F32">
+        <v>22778595737.35755</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>-0.001573746155495087</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>-0.001578027146784758</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>-0.001496079323476939</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>-0.00149895532769796</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>-0.0002114510532614316</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>-0.0002120262541056361</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>-0.001057255266307158</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>-0.00106013127052818</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>4.507268197059778</v>
@@ -2105,33 +2303,39 @@
         <v>16264351.5</v>
       </c>
       <c r="F33">
+        <v>13997334282.94469</v>
+      </c>
+      <c r="G33">
+        <v>1015246901.280969</v>
+      </c>
+      <c r="H33">
         <v>0.0007025611226219434</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.001066891514051745</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>0.0006732396484590668</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>0.0009179997221659529</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>9.439723734366101e-05</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>0.0001433492520850383</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>0.0004719861867183052</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>0.0007167462604251912</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>0.2102643889941552</v>
@@ -2146,33 +2350,39 @@
         <v>1315305.5</v>
       </c>
       <c r="F34">
+        <v>7697058981.156044</v>
+      </c>
+      <c r="G34">
+        <v>361416955.3250054</v>
+      </c>
+      <c r="H34">
         <v>-6.066382129580256e-05</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0.0005612466613775362</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>-0.0001054730911075681</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>0.0003123313500230058</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>-8.150888161391722e-06</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>7.541000006472307e-05</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>-4.075444080695886e-05</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>0.0003770500003236151</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>1.198105386173035</v>
@@ -2187,33 +2397,39 @@
         <v>94708142.5</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>11105157233.4294</v>
+      </c>
+      <c r="H35">
         <v>0.0003315959345183868</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>0.0006371889409728102</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>0.0004035300339799072</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>0.0006088298622224964</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>4.455376069787044e-05</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>8.561372634638825e-05</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>0.0002227688034893519</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>0.0004280686317319412</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>1.261330904214141</v>
@@ -2228,33 +2444,39 @@
         <v>46495451</v>
       </c>
       <c r="F36">
+        <v>415655347467.2473</v>
+      </c>
+      <c r="G36">
+        <v>28563666355.93319</v>
+      </c>
+      <c r="H36">
         <v>0.001316883159199773</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>0.001406888002160313</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>0.00110636607153846</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>0.001166832045597182</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>0.0001769385298021166</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>0.0001890317246138609</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>0.0008846926490105829</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>0.0009451586230693048</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>0.1270732915691374</v>
@@ -2269,33 +2491,39 @@
         <v>5486912.25</v>
       </c>
       <c r="F37">
+        <v>103462881215.5806</v>
+      </c>
+      <c r="G37">
+        <v>6534284466.24057</v>
+      </c>
+      <c r="H37">
         <v>1.880829353657286e-05</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>5.316143060223693e-05</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>2.309720066887657e-05</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>4.61759131728121e-05</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>2.527112434538338e-06</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>7.142854935325445e-06</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>1.263556217269169e-05</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>3.571427467662712e-05</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>0.182619173558908</v>
@@ -2310,33 +2538,39 @@
         <v>895554.25</v>
       </c>
       <c r="F38">
+        <v>1261625587.410089</v>
+      </c>
+      <c r="G38">
+        <v>206282623.6744426</v>
+      </c>
+      <c r="H38">
         <v>0.0004893737229832543</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0.002544779373995492</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>0.001078529731807477</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>0.002459367703256911</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>6.575303698246293e-05</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>0.0003419206312723498</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>0.0003287651849123143</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>0.001709603156361748</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>0.4691004962934454</v>
@@ -2351,33 +2585,39 @@
         <v>66721968.5</v>
       </c>
       <c r="F39">
+        <v>1140278490929.481</v>
+      </c>
+      <c r="G39">
+        <v>57843670218.60881</v>
+      </c>
+      <c r="H39">
         <v>0.001228386890955252</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>0.001368938585864628</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>0.001007953389735986</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>0.001102377143600272</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>0.0001650480295046759</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>0.0001839327802775332</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>0.0008252401475233799</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>0.0009196639013876659</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>0.1870761118100804</v>
@@ -2392,33 +2632,39 @@
         <v>65339964.75</v>
       </c>
       <c r="F40">
+        <v>881016914419.2806</v>
+      </c>
+      <c r="G40">
+        <v>74902123749.16447</v>
+      </c>
+      <c r="H40">
         <v>0.001294167638975491</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>0.001487643878586828</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>0.001286788635681366</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>0.001416767522378021</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>0.0001738864361337484</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>0.0001998822134730792</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>0.0008694321806687394</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>0.0009994110673653943</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>0.03179971778383467</v>
@@ -2433,33 +2679,39 @@
         <v>3720125</v>
       </c>
       <c r="F41">
+        <v>3702582423.970196</v>
+      </c>
+      <c r="G41">
+        <v>286471265.8863319</v>
+      </c>
+      <c r="H41">
         <v>-0.0001474825907398615</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>-0.0001053250425826424</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>-0.0001971174401991156</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>-0.0001687956618435741</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>-1.981599703406912e-05</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>-1.415164136296083e-05</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>-9.907998517034574e-05</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>-7.075820681480424e-05</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>0.02920343921703672</v>
@@ -2497,10 +2749,16 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>0.4895231132881281</v>
@@ -2515,33 +2773,39 @@
         <v>1198498</v>
       </c>
       <c r="F43">
+        <v>603079805.3765075</v>
+      </c>
+      <c r="G43">
+        <v>308035640.2218897</v>
+      </c>
+      <c r="H43">
         <v>-0.007760471906711089</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>-0.009907616012895904</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>-0.001392317418283865</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>-0.002834786018354966</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>-0.001042709431092193</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>-0.001331203151106412</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>-0.005213547155460973</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>-0.006656015755532072</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>0.3168591219452894</v>
@@ -2556,33 +2820,39 @@
         <v>10812422</v>
       </c>
       <c r="F44">
+        <v>74878918912.15085</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>0.0001586569611477197</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>0.0003682692339358704</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>5.047942799531316e-05</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>0.0001912986309614784</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>2.131740333395089e-05</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>4.948124392718398e-05</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>0.0001065870166697545</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>0.0002474062196359198</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>2.534325418380812</v>
@@ -2597,33 +2867,39 @@
         <v>16417990</v>
       </c>
       <c r="F45">
+        <v>7414246639.670252</v>
+      </c>
+      <c r="G45">
+        <v>2436431034.642188</v>
+      </c>
+      <c r="H45">
         <v>0.001261351009210174</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>0.003042111474662588</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>0.00110298839269245</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>0.002299317529737339</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>0.0001694771412140195</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>0.0004087429686229975</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>0.0008473857060700978</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>0.002043714843114988</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>0.2459453713445875</v>
@@ -2638,33 +2914,39 @@
         <v>162472.25</v>
       </c>
       <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>-0.0003242702387465276</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>-0.0006590836797530165</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>-0.001133370810143436</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>-0.001358301160250103</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>-4.356946848439908e-05</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>-8.85555385057327e-05</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>-0.0002178473424220015</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>-0.0004427776925286685</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>0.1631121327213523</v>
@@ -2679,33 +2961,39 @@
         <v>7312275</v>
       </c>
       <c r="F47">
+        <v>43559381238.4065</v>
+      </c>
+      <c r="G47">
+        <v>17869524335.30607</v>
+      </c>
+      <c r="H47">
         <v>0.0012046357073933</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>-0.0007648712797855703</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>-0.000444174628518117</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>-0.001767305189919577</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>0.0001618567824520026</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>-0.0001027693298282902</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>0.0008092839122600104</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>-0.00051384664914145</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>0.3527272633555201</v>
@@ -2720,33 +3008,39 @@
         <v>9036994.75</v>
       </c>
       <c r="F48">
+        <v>4368900443.186634</v>
+      </c>
+      <c r="G48">
+        <v>731894567.9101902</v>
+      </c>
+      <c r="H48">
         <v>0.002468980537273659</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>0.02002512237786621</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>0.001873400701326255</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>0.01366775734022314</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>0.0003317361782048339</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>0.002690607505984211</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>0.001658680891024171</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>0.01345303752992105</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>0.2107511226836432</v>
@@ -2761,33 +3055,39 @@
         <v>4185510.5</v>
       </c>
       <c r="F49">
+        <v>18056223502.80032</v>
+      </c>
+      <c r="G49">
+        <v>876216512.2493358</v>
+      </c>
+      <c r="H49">
         <v>-5.956269905519671e-05</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>0.0002027657079804342</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>-7.284185983218168e-05</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>0.0001033924641545463</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>-8.002939614078308e-06</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>2.724392518326733e-05</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>-4.001469807039144e-05</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>0.0001362196259163365</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>0.2119778536923761</v>
@@ -2802,33 +3102,39 @@
         <v>9826161.5</v>
       </c>
       <c r="F50">
+        <v>48481519860.35867</v>
+      </c>
+      <c r="G50">
+        <v>2395343498.338683</v>
+      </c>
+      <c r="H50">
         <v>-0.005539823272846836</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>-0.004349821175070893</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>-0.00591826453654973</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>-0.005118811600383936</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>-0.0007443395250469366</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>-0.0005844489378137778</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>-0.003721697625234682</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>-0.002922244689068886</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>0.294768796409911</v>
@@ -2843,33 +3149,39 @@
         <v>259600016</v>
       </c>
       <c r="F51">
+        <v>92118038247.22937</v>
+      </c>
+      <c r="G51">
+        <v>35769714392.45492</v>
+      </c>
+      <c r="H51">
         <v>-0.0004664642913634361</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>-0.0002070967519277019</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>-0.0002087377900196721</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>-3.449260059057177e-05</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>-6.26748890685083e-05</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>-2.782585118268823e-05</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>-0.0003133744453425413</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>-0.0001391292559134411</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>0.1363884680781818</v>
@@ -2884,33 +3196,39 @@
         <v>4732160</v>
       </c>
       <c r="F52">
+        <v>69641425049.92018</v>
+      </c>
+      <c r="G52">
+        <v>8500134030.786361</v>
+      </c>
+      <c r="H52">
         <v>-0.0004537870208126677</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>-0.005525795302730313</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>-0.002075751839433835</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>-0.005483167608544314</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>-6.097155069905156e-05</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>-0.0007424547045211472</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>-0.0003048577534952578</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>-0.003712273522605737</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>0.2898440760060395</v>
@@ -2925,33 +3243,39 @@
         <v>8463550</v>
       </c>
       <c r="F53">
+        <v>103289811942.907</v>
+      </c>
+      <c r="G53">
+        <v>10472158076.76882</v>
+      </c>
+      <c r="H53">
         <v>-0.0008376384431308628</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>-0.0005065597438823975</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>-0.0007350083678947813</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>-0.0005125870472006277</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>-0.0001125464424067595</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>-6.806217826792868e-05</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>-0.0005627322120337971</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>-0.0003403108913396434</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>0.3392858462128337</v>
@@ -2966,33 +3290,39 @@
         <v>1316566188.75</v>
       </c>
       <c r="F54">
+        <v>399582448671.4861</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>-0.0007237883047110102</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>0.003113351786091416</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>-0.000815941370742319</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>0.001761880061509533</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>-9.724935551712425e-05</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>0.0004183149309332462</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>-0.0004862467775856211</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>0.002091574654666232</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>0.4538924418798343</v>
@@ -3007,33 +3337,39 @@
         <v>60674659</v>
       </c>
       <c r="F55">
+        <v>785093710222.7733</v>
+      </c>
+      <c r="G55">
+        <v>38868557922.75883</v>
+      </c>
+      <c r="H55">
         <v>0.0006971072874219149</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>0.0007285531904575726</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>0.0005449295339920955</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>0.0005660551434000335</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>9.366445131375812e-05</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>9.788957319534576e-05</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>0.0004683222565687904</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>0.0004894478659767283</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>0.1881317763475457</v>
@@ -3048,33 +3384,39 @@
         <v>164145.5</v>
       </c>
       <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>0.002287483753962578</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>0.0004895618492576925</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>0.005385030393888918</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>0.004177172064563727</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>0.0003073499797949536</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>6.577831392991568e-05</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>0.001536749898974768</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>0.0003288915696495773</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>0.2116892168852285</v>
@@ -3089,33 +3431,39 @@
         <v>2876418.75</v>
       </c>
       <c r="F57">
+        <v>3610863626.732725</v>
+      </c>
+      <c r="G57">
+        <v>453137723.1855795</v>
+      </c>
+      <c r="H57">
         <v>-0.0004707696266216256</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>0.003224522575392009</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>-0.0005538568931045116</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>0.001928669991857838</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>-6.325336080730089e-05</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>0.0004332520161851689</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>-0.0003162668040365053</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>0.002166260080925844</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>0.0521518084924196</v>
@@ -3130,33 +3478,39 @@
         <v>9281690.75</v>
       </c>
       <c r="F58">
+        <v>5832398854.790161</v>
+      </c>
+      <c r="G58">
+        <v>994543936.615576</v>
+      </c>
+      <c r="H58">
         <v>-0.000620394198349284</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>-0.0005896746599183208</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>-0.0004605580150807309</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>-0.0004399203832293328</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>-8.335715783653091e-05</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>-7.922963146625121e-05</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>-0.0004167857891826544</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>-0.0003961481573312561</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>0.2562328189538541</v>
@@ -3171,33 +3525,39 @@
         <v>127049327</v>
       </c>
       <c r="F59">
+        <v>1583945537084.176</v>
+      </c>
+      <c r="G59">
+        <v>222513048778.0717</v>
+      </c>
+      <c r="H59">
         <v>-0.0005540958111976707</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>-0.0006165589838640004</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>-0.0007803174384907367</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>-0.000822280697953604</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>-7.444920038494768e-05</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>-8.284185227752128e-05</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>-0.0003722460019247388</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>-0.0004142092613876063</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>2.613787747665656</v>
@@ -3212,33 +3572,39 @@
         <v>47855484.5</v>
       </c>
       <c r="F60">
+        <v>10989048500.8325</v>
+      </c>
+      <c r="G60">
+        <v>2481386396.879453</v>
+      </c>
+      <c r="H60">
         <v>0.0003094354972961334</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>0.0004749002358127536</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>0.0002705395523143176</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>0.0003817000883219811</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>4.157624887042754e-05</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>6.380835607196024e-05</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>0.0002078812443521377</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>0.0003190417803598012</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>0.2387805447697462</v>
@@ -3253,33 +3619,39 @@
         <v>15639042</v>
       </c>
       <c r="F61">
+        <v>3180057034.950613</v>
+      </c>
+      <c r="G61">
+        <v>620313116.6581955</v>
+      </c>
+      <c r="H61">
         <v>1.249100052455106e-05</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>0.0004339216486458299</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>0.0001253790043552072</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>0.0004084994876387974</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>1.678310830487501e-06</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>5.830240748720553e-05</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>8.39155415243732e-06</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>0.0002915120374360275</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>0.07143822361100609</v>
@@ -3294,33 +3666,39 @@
         <v>54548.25</v>
       </c>
       <c r="F62">
+        <v>167004107.5429425</v>
+      </c>
+      <c r="G62">
+        <v>22886482.44958925</v>
+      </c>
+      <c r="H62">
         <v>-0.01831840767340808</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>-0.01263194439696645</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>-0.01272399674716812</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>-0.008903785193552711</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>-0.002461290585581051</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>-0.001697248274857969</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <v>-0.01230645292790526</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>-0.008486241374289846</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>0.3068939985094956</v>
@@ -3335,33 +3713,39 @@
         <v>51118378.5</v>
       </c>
       <c r="F63">
+        <v>379564407726.6359</v>
+      </c>
+      <c r="G63">
+        <v>54063077465.50417</v>
+      </c>
+      <c r="H63">
         <v>6.424026601464961e-05</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>0.0001441542049437521</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>1.476903889068167e-05</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>6.845586283565443e-05</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>8.631425000252943e-06</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>1.936878978924743e-05</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>4.315712500126472e-05</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>9.684394894623731e-05</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>0.1992611222189326</v>
@@ -3376,7 +3760,7 @@
         <v>3976839</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1834582609.415073</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3399,10 +3783,16 @@
       <c r="M64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>0.003561943940379805</v>
@@ -3440,10 +3830,16 @@
       <c r="M65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>0.3736880925013732</v>
@@ -3458,33 +3854,39 @@
         <v>17665698</v>
       </c>
       <c r="F66">
+        <v>22181808348.12268</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>-0.0005084499782984968</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>-0.000443507322307513</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>0.0008131981412608906</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>0.0008568271374714273</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>-6.831615319063113e-05</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>-5.959035394852379e-05</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>-0.0003415807659531561</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>-0.0002979517697426192</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>0.1428837294172986</v>
@@ -3499,33 +3901,39 @@
         <v>5885945.75</v>
       </c>
       <c r="F67">
+        <v>7704382071.825423</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>-0.000105797188549076</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>-8.105862937858862e-05</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>-0.0001290076166464897</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>-0.0001123880545446074</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>-1.4215079650989e-05</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>-1.089116723061256e-05</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>-7.10753982549451e-05</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>-5.445583615306279e-05</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <v>0.01908654605389848</v>
@@ -3540,33 +3948,39 @@
         <v>177621.5</v>
       </c>
       <c r="F68">
+        <v>342990005.1519836</v>
+      </c>
+      <c r="G68">
+        <v>34070453.3745492</v>
+      </c>
+      <c r="H68">
         <v>-0.0082874699794289</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>-0.007870660265989465</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>-0.006483310746848999</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>-0.006203294644478799</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>-0.001113517735947352</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>-0.001057514515473311</v>
       </c>
-      <c r="L68">
+      <c r="N68">
         <v>-0.005567588679736752</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>-0.005287572577366555</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>0.1877638499118782</v>
@@ -3581,33 +3995,39 @@
         <v>21096000</v>
       </c>
       <c r="F69">
+        <v>10295289857.28315</v>
+      </c>
+      <c r="G69">
+        <v>1079873612.750378</v>
+      </c>
+      <c r="H69">
         <v>-6.478440456011769e-06</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>0.0001773699606924918</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>-4.822036955584253e-05</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>7.529045818324591e-05</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>-8.704536326471179e-07</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>2.383171191517059e-05</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>-4.352268163235636e-06</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>0.0001191585595758527</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>0.1157679105624186</v>
@@ -3622,33 +4042,39 @@
         <v>2883307.25</v>
       </c>
       <c r="F70">
+        <v>12668620841.55388</v>
+      </c>
+      <c r="G70">
+        <v>640003904.3871918</v>
+      </c>
+      <c r="H70">
         <v>-0.0001386852798814295</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>0.0003753594461674631</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>-0.0001909709575146715</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>0.000154368404767449</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>-1.863397626128547e-05</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>5.043389619513869e-05</v>
       </c>
-      <c r="L70">
+      <c r="N70">
         <v>-9.316988130642733e-05</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>0.0002521694809756932</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>0.03882925511546208</v>
@@ -3663,33 +4089,39 @@
         <v>1967896.5</v>
       </c>
       <c r="F71">
+        <v>8331725108.718972</v>
+      </c>
+      <c r="G71">
+        <v>436094132.0608147</v>
+      </c>
+      <c r="H71">
         <v>-0.0001022907941026576</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>-3.118266745965138e-05</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>-0.0001682748654645759</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>-0.0001205038567106871</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>-1.374395487889262e-05</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>-4.189753128114826e-06</v>
       </c>
-      <c r="L71">
+      <c r="N71">
         <v>-6.871977439446305e-05</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>-2.094876564057425e-05</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>0.2114788631148144</v>
@@ -3704,33 +4136,39 @@
         <v>35034442.5</v>
       </c>
       <c r="F72">
+        <v>23155221009.51609</v>
+      </c>
+      <c r="G72">
+        <v>4710628793.764984</v>
+      </c>
+      <c r="H72">
         <v>0.0001424225196278461</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>0.001864926080999416</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>5.795024637688664e-05</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>0.001215141928869047</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>1.913611777750844e-05</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>0.0002505744542759405</v>
       </c>
-      <c r="L72">
+      <c r="N72">
         <v>9.568058888754182e-05</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>0.001252872271379702</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>0.4709552485333245</v>
@@ -3745,33 +4183,39 @@
         <v>38408.25</v>
       </c>
       <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
         <v>0.0007522133651125938</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>0.0005030201774102398</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>0.0007213952698752154</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>0.0005539852913940927</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>0.000101068592145565</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>6.758659644934049e-05</v>
       </c>
-      <c r="L73">
+      <c r="N73">
         <v>0.000505342960727825</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>0.0003379329822467023</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74">
         <v>0.0927937946339874</v>
@@ -3786,33 +4230,39 @@
         <v>2103721</v>
       </c>
       <c r="F74">
+        <v>2748208316.912612</v>
+      </c>
+      <c r="G74">
+        <v>198917935.3193891</v>
+      </c>
+      <c r="H74">
         <v>6.430974042843166e-05</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>0.0007129916642730975</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>8.893242214833846e-05</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>0.0005247221317837392</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>8.640759693727876e-06</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>9.579870162080804e-05</v>
       </c>
-      <c r="L74">
+      <c r="N74">
         <v>4.320379846863936e-05</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>0.0004789935081040401</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>0.2938881340975527</v>
@@ -3827,33 +4277,39 @@
         <v>52645920.75</v>
       </c>
       <c r="F75">
+        <v>4234214727.32078</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
         <v>1.848755690395926e-05</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>0.0001470976182036208</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>0.0001250760409286941</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>0.000211477309732034</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>2.484017747031774e-06</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>1.976427150769974e-05</v>
       </c>
-      <c r="L75">
+      <c r="N75">
         <v>1.242008873515893e-05</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>9.882135753849872e-05</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76">
         <v>0.005174931977624367</v>
@@ -3868,33 +4324,39 @@
         <v>606114.25</v>
       </c>
       <c r="F76">
+        <v>12775118296.0182</v>
+      </c>
+      <c r="G76">
+        <v>627262048.2019763</v>
+      </c>
+      <c r="H76">
         <v>-0.001777196082602047</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>-0.0009271975235465377</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>-0.0007675410401059411</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>-0.0001965052032417533</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>-0.0002387869112220786</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>-0.0001245797438492411</v>
       </c>
-      <c r="L76">
+      <c r="N76">
         <v>-0.001193934556110395</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>-0.0006228987192462076</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77">
         <v>0.1223696320960522</v>
@@ -3909,33 +4371,39 @@
         <v>450064.75</v>
       </c>
       <c r="F77">
+        <v>3687889025.586543</v>
+      </c>
+      <c r="G77">
+        <v>730216301.5493581</v>
+      </c>
+      <c r="H77">
         <v>-0.00103372004539166</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>-0.002256967451647639</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>-0.00199586087295446</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>-0.00281764827351135</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>-0.0001388922804432567</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>-0.0003032497605546346</v>
       </c>
-      <c r="L77">
+      <c r="N77">
         <v>-0.0006944614022162856</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>-0.001516248802773175</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78">
         <v>0.05989864754605726</v>
@@ -3950,33 +4418,39 @@
         <v>1262906.25</v>
       </c>
       <c r="F78">
+        <v>2271466888.177237</v>
+      </c>
+      <c r="G78">
+        <v>315552337.3372826</v>
+      </c>
+      <c r="H78">
         <v>-0.02696361525179571</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>-0.02790438024248993</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>-0.02823094302835323</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>-0.02886295648064722</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>-0.003622874518117293</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>-0.003749277208576087</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>-0.01811437259058647</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>-0.01874638604288047</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>0.4560688034870074</v>
@@ -3991,33 +4465,39 @@
         <v>126704062</v>
       </c>
       <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>37787776867.76843</v>
+      </c>
+      <c r="H79">
         <v>0.001291523205396408</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>0.006279125943063121</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>0.00107334682488152</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>0.004424058273633073</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>0.0001735311258039189</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>0.0008436734155542296</v>
       </c>
-      <c r="L79">
+      <c r="N79">
         <v>0.0008676556290195923</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>0.004218367077771146</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80">
         <v>0.1449132329743426</v>
@@ -4032,33 +4512,39 @@
         <v>30940675.25</v>
       </c>
       <c r="F80">
+        <v>40792453007.74967</v>
+      </c>
+      <c r="G80">
+        <v>17355071592.01313</v>
+      </c>
+      <c r="H80">
         <v>0.0002589873798215836</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>0.00197941291117395</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>0.0004088542774020249</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>0.001564649922691059</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>3.479795903136878e-05</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>0.0002659570880891758</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>0.0001739897951568447</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>0.001329785440445879</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81">
         <v>1.644956220241079</v>
@@ -4070,36 +4556,42 @@
         <v>10945000000</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>2452515</v>
       </c>
       <c r="F81">
+        <v>3142398453.602035</v>
+      </c>
+      <c r="G81">
+        <v>508419371.5573662</v>
+      </c>
+      <c r="H81">
         <v>7.914002035563939e-05</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>0.0003678692072385983</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>5.161278901166628e-05</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>0.0002455833682583301</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>1.063337985030161e-05</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>4.942749569963436e-05</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>5.316689925150806e-05</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>0.0002471374784981718</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B82">
         <v>1.77626889548744</v>
@@ -4114,33 +4606,39 @@
         <v>183629549.25</v>
       </c>
       <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>4255580884.992722</v>
+      </c>
+      <c r="H82">
         <v>7.399157751991488e-05</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>-7.198494159687177e-05</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>0.001623208581890786</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>0.001525140387694081</v>
       </c>
-      <c r="J82">
+      <c r="L82">
         <v>9.941626827446609e-06</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>-9.672012011894461e-06</v>
       </c>
-      <c r="L82">
+      <c r="N82">
         <v>4.970813413723286e-05</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>-4.83600600594722e-05</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83">
         <v>0.3602404008541973</v>
@@ -4155,33 +4653,39 @@
         <v>6115885.25</v>
       </c>
       <c r="F83">
+        <v>3148813587.287746</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>0.001086425908584097</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>0.00472705008756893</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>0.0008577941680302559</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>0.003303594637462384</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>0.0001459739246119686</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>0.0006351340184983946</v>
       </c>
-      <c r="L83">
+      <c r="N83">
         <v>0.0007298696230598425</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>0.00317567009249197</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>0.0813244501352182</v>
@@ -4196,33 +4700,39 @@
         <v>16992024.75</v>
       </c>
       <c r="F84">
+        <v>301314513790.1466</v>
+      </c>
+      <c r="G84">
+        <v>25519214650.87755</v>
+      </c>
+      <c r="H84">
         <v>-0.004843116963708965</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>-0.007347651218688736</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>-0.005731051077741149</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>-0.007413617240955079</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>-0.0006507289498174495</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>-0.0009872421824602348</v>
       </c>
-      <c r="L84">
+      <c r="N84">
         <v>-0.003253644749087252</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <v>-0.00493621091230118</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85">
         <v>1.120509505427408</v>
@@ -4237,33 +4747,39 @@
         <v>5211053.25</v>
       </c>
       <c r="F85">
+        <v>143642415165.2614</v>
+      </c>
+      <c r="G85">
+        <v>12711932917.64178</v>
+      </c>
+      <c r="H85">
         <v>0.0007437500638268556</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>0.0005843207097157782</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>0.001232678205737746</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>0.00112557228929161</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>9.993144943376896e-05</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>7.851026614454167e-05</v>
       </c>
-      <c r="L85">
+      <c r="N85">
         <v>0.0004996572471688451</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>0.0003925513307227085</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86">
         <v>0.2769680603303864</v>
@@ -4278,33 +4794,39 @@
         <v>4648125</v>
       </c>
       <c r="F86">
+        <v>60860293470.54649</v>
+      </c>
+      <c r="G86">
+        <v>8974944428.672821</v>
+      </c>
+      <c r="H86">
         <v>0.0001762196846807844</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>0.0004309078395795424</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>1.082652119780281e-06</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>0.0001721841935548759</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>2.367715898846927e-05</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>5.789746727548825e-05</v>
       </c>
-      <c r="L86">
+      <c r="N86">
         <v>0.0001183857949423458</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>0.0002894873363774413</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87">
         <v>0.07234454195091813</v>
@@ -4319,33 +4841,39 @@
         <v>4001485.25</v>
       </c>
       <c r="F87">
+        <v>8611043762.443003</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>0.0009396553998910893</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>-0.0003282108410677945</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>0.0003423353366212867</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>-0.0005094273542970235</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>0.0001262536040618674</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>-4.409893412179471e-05</v>
       </c>
-      <c r="L87">
+      <c r="N87">
         <v>0.0006312680203093366</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>-0.0002204946706089736</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88">
         <v>1.41044544263576</v>
@@ -4360,33 +4888,39 @@
         <v>31572337.25</v>
       </c>
       <c r="F88">
+        <v>25389636418.45771</v>
+      </c>
+      <c r="G88">
+        <v>6646655023.312309</v>
+      </c>
+      <c r="H88">
         <v>0.0008138284870468983</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>0.00148336643996581</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>0.001847631016644178</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>0.002297431973580173</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>0.0001093472985839241</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>0.0001993074899711233</v>
       </c>
-      <c r="L88">
+      <c r="N88">
         <v>0.000546736492919621</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>0.0009965374498556163</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89">
         <v>0.1787880268188615</v>
@@ -4401,33 +4935,39 @@
         <v>8002940.75</v>
       </c>
       <c r="F89">
+        <v>3145721283.938551</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>-0.0004285548470879921</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>-0.0009381613909385057</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>0.004859290189280819</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>0.004516932433330624</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>-5.758131543682122e-05</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>-0.0001260528666268603</v>
       </c>
-      <c r="L89">
+      <c r="N89">
         <v>-0.0002879065771841077</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>-0.0006302643331343032</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90">
         <v>0.2288659649874671</v>
@@ -4442,33 +4982,39 @@
         <v>102514230</v>
       </c>
       <c r="F90">
+        <v>43415746659.06635</v>
+      </c>
+      <c r="G90">
+        <v>11350149943.31396</v>
+      </c>
+      <c r="H90">
         <v>-0.0003038921560508346</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>0.004876710388484241</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>-0.0003455362003538623</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>0.003134834063763408</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>-4.083143666496913e-05</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>0.0006552426161584849</v>
       </c>
-      <c r="L90">
+      <c r="N90">
         <v>-0.0002041571833248459</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>0.003276213080792426</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91">
         <v>0.3769365909702638</v>
@@ -4483,33 +5029,39 @@
         <v>191286550.25</v>
       </c>
       <c r="F91">
+        <v>27858825095.19225</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>-0.000276330099409238</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>-8.795175092293711e-05</v>
       </c>
-      <c r="H91">
+      <c r="J91">
         <v>-0.0002882557264238777</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>-0.0001617016437975526</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>-3.712815460352169e-05</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>-1.181733807825665e-05</v>
       </c>
-      <c r="L91">
+      <c r="N91">
         <v>-0.0001856407730176086</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>-5.908669039128341e-05</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92">
         <v>0.1982935992218995</v>
@@ -4524,33 +5076,39 @@
         <v>37986018.75</v>
       </c>
       <c r="F92">
+        <v>159205910232.1582</v>
+      </c>
+      <c r="G92">
+        <v>9126103320.209379</v>
+      </c>
+      <c r="H92">
         <v>0.0004372771401777067</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>0.001770568184083225</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>0.0003718387593897953</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>0.001267554356703405</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>5.875325670208549e-05</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>0.0002378963761648074</v>
       </c>
-      <c r="L92">
+      <c r="N92">
         <v>0.0002937662835104269</v>
       </c>
-      <c r="M92">
+      <c r="O92">
         <v>0.001189481880824036</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93">
         <v>0.01553378878135734</v>
@@ -4565,33 +5123,39 @@
         <v>3437937</v>
       </c>
       <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>-0.1128078471131986</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>-0.122322726158916</v>
       </c>
-      <c r="H93">
+      <c r="J93">
         <v>-0.1186587715231899</v>
       </c>
-      <c r="I93">
+      <c r="K93">
         <v>-0.1250509434400107</v>
       </c>
-      <c r="J93">
+      <c r="L93">
         <v>-0.01515704296080476</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>-0.01643547734416893</v>
       </c>
-      <c r="L93">
+      <c r="N93">
         <v>-0.07578521480402392</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>-0.08217738672084469</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94">
         <v>0.3474442448407433</v>
@@ -4606,33 +5170,39 @@
         <v>10344577</v>
       </c>
       <c r="F94">
+        <v>70681053927.93391</v>
+      </c>
+      <c r="G94">
+        <v>6615632134.18939</v>
+      </c>
+      <c r="H94">
         <v>0.0005540350646830873</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>0.001102998586465451</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>0.0004288390185253426</v>
       </c>
-      <c r="I94">
+      <c r="K94">
         <v>0.0007976371073329632</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>7.444103838598379e-05</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>0.0001482006561475079</v>
       </c>
-      <c r="L94">
+      <c r="N94">
         <v>0.0003722051919299192</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>0.0007410032807375395</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95">
         <v>0.1657047711363369</v>
@@ -4647,33 +5217,39 @@
         <v>6682077</v>
       </c>
       <c r="F95">
+        <v>3020223014.053269</v>
+      </c>
+      <c r="G95">
+        <v>606255246.4463352</v>
+      </c>
+      <c r="H95">
         <v>0.00023904351322726</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>0.0001472344059108189</v>
       </c>
-      <c r="H95">
+      <c r="J95">
         <v>0.000245740166024117</v>
       </c>
-      <c r="I95">
+      <c r="K95">
         <v>0.0001840620727265798</v>
       </c>
-      <c r="J95">
+      <c r="L95">
         <v>3.211826918256447e-05</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>1.978265052305702e-05</v>
       </c>
-      <c r="L95">
+      <c r="N95">
         <v>0.0001605913459128221</v>
       </c>
-      <c r="M95">
+      <c r="O95">
         <v>9.891325261528501e-05</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96">
         <v>0.4278407161903409</v>
@@ -4688,33 +5264,39 @@
         <v>2516243.25</v>
       </c>
       <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>6649586666.688611</v>
+      </c>
+      <c r="H96">
         <v>-0.0007245163184865001</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>-0.0007537574328806097</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>-0.0005770314997000447</v>
       </c>
-      <c r="I96">
+      <c r="K96">
         <v>-0.0005966759144475656</v>
       </c>
-      <c r="J96">
+      <c r="L96">
         <v>-9.734717261366079e-05</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>-0.0001012760555631649</v>
       </c>
-      <c r="L96">
+      <c r="N96">
         <v>-0.0004867358630683043</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>-0.0005063802778158253</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97">
         <v>0.2631583188033569</v>
@@ -4729,33 +5311,39 @@
         <v>19753332.75</v>
       </c>
       <c r="F97">
+        <v>48321281767.00397</v>
+      </c>
+      <c r="G97">
+        <v>3772988828.179805</v>
+      </c>
+      <c r="H97">
         <v>0.0003709740144202328</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>0.001324321224257528</v>
       </c>
-      <c r="H97">
+      <c r="J97">
         <v>0.000347241991835665</v>
       </c>
-      <c r="I97">
+      <c r="K97">
         <v>0.0009877082796803072</v>
       </c>
-      <c r="J97">
+      <c r="L97">
         <v>4.984466256383159e-05</v>
       </c>
-      <c r="K97">
+      <c r="M97">
         <v>0.00017793792013276</v>
       </c>
-      <c r="L97">
+      <c r="N97">
         <v>0.0002492233128191578</v>
       </c>
-      <c r="M97">
+      <c r="O97">
         <v>0.0008896896006638</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98">
         <v>3.037009127788569</v>
@@ -4770,33 +5358,39 @@
         <v>7076637.25</v>
       </c>
       <c r="F98">
+        <v>13839772672.29938</v>
+      </c>
+      <c r="G98">
+        <v>902243620.0800525</v>
+      </c>
+      <c r="H98">
         <v>0.0002671322503275723</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>0.00109008604976646</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>0.0002695473955267386</v>
       </c>
-      <c r="I98">
+      <c r="K98">
         <v>0.0008224143463664259</v>
       </c>
-      <c r="J98">
+      <c r="L98">
         <v>3.589231687374115e-05</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>0.0001464657070416786</v>
       </c>
-      <c r="L98">
+      <c r="N98">
         <v>0.0001794615843687058</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>0.000732328535208393</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99">
         <v>0.4012236469816403</v>
@@ -4811,33 +5405,39 @@
         <v>144188494</v>
       </c>
       <c r="F99">
+        <v>400814842174.5289</v>
+      </c>
+      <c r="G99">
+        <v>46100109643.07681</v>
+      </c>
+      <c r="H99">
         <v>0.0001945907633976554</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>0.0006334682521698108</v>
       </c>
-      <c r="H99">
+      <c r="J99">
         <v>0.0002051784799074885</v>
       </c>
-      <c r="I99">
+      <c r="K99">
         <v>0.0005000198904156845</v>
       </c>
-      <c r="J99">
+      <c r="L99">
         <v>2.614552653978431e-05</v>
       </c>
-      <c r="K99">
+      <c r="M99">
         <v>8.511380864142349e-05</v>
       </c>
-      <c r="L99">
+      <c r="N99">
         <v>0.0001307276326989214</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>0.0004255690432071173</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100">
         <v>0.4191281043252832</v>
@@ -4852,33 +5452,39 @@
         <v>31886941.5</v>
       </c>
       <c r="F100">
+        <v>21829976674.02858</v>
+      </c>
+      <c r="G100">
+        <v>3500018031.81101</v>
+      </c>
+      <c r="H100">
         <v>7.419152724570885e-05</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>0.0001748724734602798</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>9.964038102212016e-05</v>
       </c>
-      <c r="I100">
+      <c r="K100">
         <v>0.0001672786467172991</v>
       </c>
-      <c r="J100">
+      <c r="L100">
         <v>9.968492392754432e-06</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>2.34961455317902e-05</v>
       </c>
-      <c r="L100">
+      <c r="N100">
         <v>4.984246196377224e-05</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>0.0001174807276589511</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101">
         <v>1.215566435947169</v>
@@ -4893,33 +5499,39 @@
         <v>9871531.25</v>
       </c>
       <c r="F101">
+        <v>227165214131.7061</v>
+      </c>
+      <c r="G101">
+        <v>13598015763.87418</v>
+      </c>
+      <c r="H101">
         <v>0.0001901310031894461</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>0.0001267262734525027</v>
       </c>
-      <c r="H101">
+      <c r="J101">
         <v>-1.789479460545488e-05</v>
       </c>
-      <c r="I101">
+      <c r="K101">
         <v>-6.049059964624722e-05</v>
       </c>
-      <c r="J101">
+      <c r="L101">
         <v>2.554630601744871e-05</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>1.702714500929022e-05</v>
       </c>
-      <c r="L101">
+      <c r="N101">
         <v>0.0001277315300872438</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>8.513572504645131e-05</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102">
         <v>0.06238487249287841</v>
@@ -4934,33 +5546,39 @@
         <v>5556065.5</v>
       </c>
       <c r="F102">
+        <v>44213495718.4691</v>
+      </c>
+      <c r="G102">
+        <v>14218511286.90894</v>
+      </c>
+      <c r="H102">
         <v>-0.001118339410956243</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <v>-0.006743027652597319</v>
       </c>
-      <c r="H102">
+      <c r="J102">
         <v>-0.004263744094050063</v>
       </c>
-      <c r="I102">
+      <c r="K102">
         <v>-0.008042454684729907</v>
       </c>
-      <c r="J102">
+      <c r="L102">
         <v>-0.0001502618738891048</v>
       </c>
-      <c r="K102">
+      <c r="M102">
         <v>-0.0009060039920250748</v>
       </c>
-      <c r="L102">
+      <c r="N102">
         <v>-0.0007513093694455262</v>
       </c>
-      <c r="M102">
+      <c r="O102">
         <v>-0.004530019960125373</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103">
         <v>0.1540733019247695</v>
@@ -4975,33 +5593,39 @@
         <v>2064325.25</v>
       </c>
       <c r="F103">
+        <v>16215475323.27907</v>
+      </c>
+      <c r="G103">
+        <v>794473219.0465115</v>
+      </c>
+      <c r="H103">
         <v>0.0001860035029932249</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>0.0003863630277139254</v>
       </c>
-      <c r="H103">
+      <c r="J103">
         <v>0.0001656833137754659</v>
       </c>
-      <c r="I103">
+      <c r="K103">
         <v>0.0003002864465145699</v>
       </c>
-      <c r="J103">
+      <c r="L103">
         <v>2.499172848232323e-05</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>5.191235503014408e-05</v>
       </c>
-      <c r="L103">
+      <c r="N103">
         <v>0.0001249586424116162</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>0.0002595617751507203</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104">
         <v>0.1361389850972489</v>
@@ -5016,33 +5640,39 @@
         <v>5428285</v>
       </c>
       <c r="F104">
+        <v>29592783664.32924</v>
+      </c>
+      <c r="G104">
+        <v>2885401551.024737</v>
+      </c>
+      <c r="H104">
         <v>0.0003025071854255977</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>0.002256333766124879</v>
       </c>
-      <c r="H104">
+      <c r="J104">
         <v>0.0002487113296741499</v>
       </c>
-      <c r="I104">
+      <c r="K104">
         <v>0.001561307668468938</v>
       </c>
-      <c r="J104">
+      <c r="L104">
         <v>4.064534979421198e-05</v>
       </c>
-      <c r="K104">
+      <c r="M104">
         <v>0.0003031646175531697</v>
       </c>
-      <c r="L104">
+      <c r="N104">
         <v>0.0002032267489710591</v>
       </c>
-      <c r="M104">
+      <c r="O104">
         <v>0.001515823087765847</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B105">
         <v>0.02200725380977351</v>
@@ -5057,33 +5687,39 @@
         <v>15196321.5</v>
       </c>
       <c r="F105">
+        <v>2342662060.465637</v>
+      </c>
+      <c r="G105">
+        <v>216441678.0427456</v>
+      </c>
+      <c r="H105">
         <v>-0.001139045642562659</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>-0.001039219679816705</v>
       </c>
-      <c r="H105">
+      <c r="J105">
         <v>-0.001177020753067591</v>
       </c>
-      <c r="I105">
+      <c r="K105">
         <v>-0.001109956872111428</v>
       </c>
-      <c r="J105">
+      <c r="L105">
         <v>-0.0001530439963215977</v>
       </c>
-      <c r="K105">
+      <c r="M105">
         <v>-0.0001396312201303651</v>
       </c>
-      <c r="L105">
+      <c r="N105">
         <v>-0.0007652199816079881</v>
       </c>
-      <c r="M105">
+      <c r="O105">
         <v>-0.0006981561006518252</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106">
         <v>0.2294454729434642</v>
@@ -5098,33 +5734,39 @@
         <v>6329060.5</v>
       </c>
       <c r="F106">
+        <v>4767420112.154323</v>
+      </c>
+      <c r="G106">
+        <v>999200870.7878593</v>
+      </c>
+      <c r="H106">
         <v>-0.0003037788316975301</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>0.008207114228135401</v>
       </c>
-      <c r="H106">
+      <c r="J106">
         <v>-0.0004535262233509211</v>
       </c>
-      <c r="I106">
+      <c r="K106">
         <v>0.005264159870474458</v>
       </c>
-      <c r="J106">
+      <c r="L106">
         <v>-4.081621022340885e-05</v>
       </c>
-      <c r="K106">
+      <c r="M106">
         <v>0.001102721008541667</v>
       </c>
-      <c r="L106">
+      <c r="N106">
         <v>-0.0002040810511170469</v>
       </c>
-      <c r="M106">
+      <c r="O106">
         <v>0.005513605042708334</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B107">
         <v>0.005817303773967213</v>
@@ -5138,34 +5780,40 @@
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="F107" t="s">
-        <v>132</v>
-      </c>
-      <c r="G107" t="s">
-        <v>132</v>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>134</v>
+      </c>
+      <c r="N107" t="s">
+        <v>134</v>
+      </c>
+      <c r="O107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108">
         <v>0.1702710851104377</v>
@@ -5180,33 +5828,39 @@
         <v>68743849.75</v>
       </c>
       <c r="F108">
+        <v>71255532011.76402</v>
+      </c>
+      <c r="G108">
+        <v>16467162037.08834</v>
+      </c>
+      <c r="H108">
         <v>-0.0003122728269966906</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>0.0004184082343690246</v>
       </c>
-      <c r="H108">
+      <c r="J108">
         <v>-0.0003256477580068294</v>
       </c>
-      <c r="I108">
+      <c r="K108">
         <v>0.000165229628681229</v>
       </c>
-      <c r="J108">
+      <c r="L108">
         <v>-4.195747703199482e-05</v>
       </c>
-      <c r="K108">
+      <c r="M108">
         <v>5.621800030561677e-05</v>
       </c>
-      <c r="L108">
+      <c r="N108">
         <v>-0.0002097873851599736</v>
       </c>
-      <c r="M108">
+      <c r="O108">
         <v>0.0002810900015280848</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B109">
         <v>0.2338423056782688</v>
@@ -5221,33 +5875,39 @@
         <v>11338236</v>
       </c>
       <c r="F109">
+        <v>12460186638.38316</v>
+      </c>
+      <c r="G109">
+        <v>679178508.4349424</v>
+      </c>
+      <c r="H109">
         <v>0.0001364696327779128</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>0.001080377234567736</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>7.618542638033145e-05</v>
       </c>
-      <c r="I109">
+      <c r="K109">
         <v>0.0007103101099673768</v>
       </c>
-      <c r="J109">
+      <c r="L109">
         <v>1.833627836886593e-05</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>0.000145161215086275</v>
       </c>
-      <c r="L109">
+      <c r="N109">
         <v>9.168139184432956e-05</v>
       </c>
-      <c r="M109">
+      <c r="O109">
         <v>0.0007258060754313748</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110">
         <v>0.5210711135742035</v>
@@ -5262,33 +5922,39 @@
         <v>78889886.5</v>
       </c>
       <c r="F110">
+        <v>214797500930.788</v>
+      </c>
+      <c r="G110">
+        <v>14703822077.67806</v>
+      </c>
+      <c r="H110">
         <v>0.0002051479397025536</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>0.000325016745978704</v>
       </c>
-      <c r="H110">
+      <c r="J110">
         <v>0.0001551261770000522</v>
       </c>
-      <c r="I110">
+      <c r="K110">
         <v>0.0002356550006981433</v>
       </c>
-      <c r="J110">
+      <c r="L110">
         <v>2.756400565176984e-05</v>
       </c>
-      <c r="K110">
+      <c r="M110">
         <v>4.366977039138808e-05</v>
       </c>
-      <c r="L110">
+      <c r="N110">
         <v>0.0001378200282588492</v>
       </c>
-      <c r="M110">
+      <c r="O110">
         <v>0.0002183488519569403</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B111">
         <v>0.1802527304245044</v>
@@ -5303,33 +5969,39 @@
         <v>23577271</v>
       </c>
       <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
         <v>-2.396803209552318e-05</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>0.0002161778777833388</v>
       </c>
-      <c r="H111">
+      <c r="J111">
         <v>-0.0001051844586456746</v>
       </c>
-      <c r="I111">
+      <c r="K111">
         <v>5.614748616322462e-05</v>
       </c>
-      <c r="J111">
+      <c r="L111">
         <v>-3.220383168852091e-06</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>2.904600579292779e-05</v>
       </c>
-      <c r="L111">
+      <c r="N111">
         <v>-1.610191584426075e-05</v>
       </c>
-      <c r="M111">
+      <c r="O111">
         <v>0.0001452300289646386</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112">
         <v>0.2967113110764871</v>
@@ -5344,33 +6016,39 @@
         <v>45065445</v>
       </c>
       <c r="F112">
+        <v>29874275095.81216</v>
+      </c>
+      <c r="G112">
+        <v>2294800315.93204</v>
+      </c>
+      <c r="H112">
         <v>0.0001713721216617773</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>0.001113719644525822</v>
       </c>
-      <c r="H112">
+      <c r="J112">
         <v>8.559462349730635e-05</v>
       </c>
-      <c r="I112">
+      <c r="K112">
         <v>0.0007186712335723847</v>
       </c>
-      <c r="J112">
+      <c r="L112">
         <v>2.302583265954301e-05</v>
       </c>
-      <c r="K112">
+      <c r="M112">
         <v>0.0001496411546745587</v>
       </c>
-      <c r="L112">
+      <c r="N112">
         <v>0.000115129163297715</v>
       </c>
-      <c r="M112">
+      <c r="O112">
         <v>0.0007482057733727934</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B113">
         <v>2.296491669346442</v>
@@ -5385,33 +6063,39 @@
         <v>40832282.75</v>
       </c>
       <c r="F113">
+        <v>3207987015.574299</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
         <v>0.0001297134190806096</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>0.0001987205474138292</v>
       </c>
-      <c r="H113">
+      <c r="J113">
         <v>0.0001933649000182589</v>
       </c>
-      <c r="I113">
+      <c r="K113">
         <v>0.0002397244412875295</v>
       </c>
-      <c r="J113">
+      <c r="L113">
         <v>1.742850267876128e-05</v>
       </c>
-      <c r="K113">
+      <c r="M113">
         <v>2.67004109326154e-05</v>
       </c>
-      <c r="L113">
+      <c r="N113">
         <v>8.714251339380639e-05</v>
       </c>
-      <c r="M113">
+      <c r="O113">
         <v>0.000133502054663077</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114">
         <v>0.2034671187804626</v>
@@ -5426,33 +6110,39 @@
         <v>322196869.25</v>
       </c>
       <c r="F114">
+        <v>5030701274022.499</v>
+      </c>
+      <c r="G114">
+        <v>355596860701.1148</v>
+      </c>
+      <c r="H114">
         <v>0.001090840634768791</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>0.0002927374043491806</v>
       </c>
-      <c r="H114">
+      <c r="J114">
         <v>0.001418944672736309</v>
       </c>
-      <c r="I114">
+      <c r="K114">
         <v>0.0008827725331116482</v>
       </c>
-      <c r="J114">
+      <c r="L114">
         <v>0.0001465670942907996</v>
       </c>
-      <c r="K114">
+      <c r="M114">
         <v>3.933266636586642e-05</v>
       </c>
-      <c r="L114">
+      <c r="N114">
         <v>0.0007328354714539904</v>
       </c>
-      <c r="M114">
+      <c r="O114">
         <v>0.0001966633318293294</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B115">
         <v>0.03031723305851668</v>
@@ -5467,33 +6157,39 @@
         <v>3437963.5</v>
       </c>
       <c r="F115">
+        <v>17942881571.56679</v>
+      </c>
+      <c r="G115">
+        <v>1424464477.417897</v>
+      </c>
+      <c r="H115">
         <v>-0.002784141121365232</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <v>-0.002837842882872006</v>
       </c>
-      <c r="H115">
+      <c r="J115">
         <v>-0.003062797106651332</v>
       </c>
-      <c r="I115">
+      <c r="K115">
         <v>-0.003098874379955391</v>
       </c>
-      <c r="J115">
+      <c r="L115">
         <v>-0.0003740816589038395</v>
       </c>
-      <c r="K115">
+      <c r="M115">
         <v>-0.0003812971135646509</v>
       </c>
-      <c r="L115">
+      <c r="N115">
         <v>-0.001870408294519197</v>
       </c>
-      <c r="M115">
+      <c r="O115">
         <v>-0.001906485567823256</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B116">
         <v>0.007677296166441261</v>
@@ -5531,10 +6227,16 @@
       <c r="M116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B117">
         <v>0.504179661327714</v>
@@ -5572,10 +6274,16 @@
       <c r="M117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B118">
         <v>0.176418937746618</v>
@@ -5590,33 +6298,39 @@
         <v>94056588.5</v>
       </c>
       <c r="F118">
+        <v>37720488719.37246</v>
+      </c>
+      <c r="G118">
+        <v>7680824462.047056</v>
+      </c>
+      <c r="H118">
         <v>2.543698666844576e-05</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <v>0.00109161944281704</v>
       </c>
-      <c r="H118">
+      <c r="J118">
         <v>-1.681250468027583e-05</v>
       </c>
-      <c r="I118">
+      <c r="K118">
         <v>0.0006994574049690263</v>
       </c>
-      <c r="J118">
+      <c r="L118">
         <v>3.41775425729177e-06</v>
       </c>
-      <c r="K118">
+      <c r="M118">
         <v>0.0001466717361871523</v>
       </c>
-      <c r="L118">
+      <c r="N118">
         <v>1.708877128645872e-05</v>
       </c>
-      <c r="M118">
+      <c r="O118">
         <v>0.0007333586809357607</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B119">
         <v>0.3322926075144546</v>
@@ -5631,33 +6345,39 @@
         <v>55640856.25</v>
       </c>
       <c r="F119">
+        <v>86191971741.78984</v>
+      </c>
+      <c r="G119">
+        <v>15808184832.85762</v>
+      </c>
+      <c r="H119">
         <v>0.001349264709490643</v>
       </c>
-      <c r="G119">
+      <c r="I119">
         <v>0.002646429817035778</v>
       </c>
-      <c r="H119">
+      <c r="J119">
         <v>0.001029066807735912</v>
       </c>
-      <c r="I119">
+      <c r="K119">
         <v>0.001900512711786775</v>
       </c>
-      <c r="J119">
+      <c r="L119">
         <v>0.0001812893667470293</v>
       </c>
-      <c r="K119">
+      <c r="M119">
         <v>0.0003555785475572018</v>
       </c>
-      <c r="L119">
+      <c r="N119">
         <v>0.0009064468337351461</v>
       </c>
-      <c r="M119">
+      <c r="O119">
         <v>0.001777892737786009</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B120">
         <v>0.110305415721579</v>
@@ -5672,27 +6392,33 @@
         <v>15967348</v>
       </c>
       <c r="F120">
+        <v>2189217368.947853</v>
+      </c>
+      <c r="G120">
+        <v>284694083.3487357</v>
+      </c>
+      <c r="H120">
         <v>-0.000282851589657971</v>
       </c>
-      <c r="G120">
+      <c r="I120">
         <v>0.0006102005375758212</v>
       </c>
-      <c r="H120">
+      <c r="J120">
         <v>-0.0002428786449001728</v>
       </c>
-      <c r="I120">
+      <c r="K120">
         <v>0.0003570809237430341</v>
       </c>
-      <c r="J120">
+      <c r="L120">
         <v>-3.800439247524808e-05</v>
       </c>
-      <c r="K120">
+      <c r="M120">
         <v>8.198752125339326e-05</v>
       </c>
-      <c r="L120">
+      <c r="N120">
         <v>-0.000190021962376241</v>
       </c>
-      <c r="M120">
+      <c r="O120">
         <v>0.000409937606266966</v>
       </c>
     </row>
